--- a/Data/g18.1b.xlsx
+++ b/Data/g18.1b.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA7AF23-49E8-4B2C-A36D-A1ABF3591CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B3B3EC-305C-485D-BDAF-82529829FA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E4969423-BDE3-471A-A370-E3279A74D65F}"/>
   </bookViews>
   <sheets>
-    <sheet name="g18.1b" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,47 +27,57 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Média (2002-2022)</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>Região</t>
   </si>
   <si>
     <t>Posição</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Rondônia</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
+  </si>
+  <si>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>Roraima</t>
+  </si>
+  <si>
+    <t>Média (2002-2023)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,20 +103,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,58 +433,59 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>531.39304086320362</v>
+        <v>691.35484874672784</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>481.61182562697917</v>
+        <v>515.29503222369408</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>598.08350647892962</v>
+        <v>642.2215325340868</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>730.12365624163169</v>
+        <v>785.80332285451368</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -480,10 +493,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>932.76259668602529</v>
+        <v>982.44972273089297</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -491,10 +504,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1075.1024036350639</v>
+        <v>1152.7797044355036</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -502,10 +515,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1174.6133658929623</v>
+        <v>1265.4806412943281</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -513,10 +526,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>1344.2893714817671</v>
+        <v>1434.44464948533</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -524,10 +537,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1389.627837825351</v>
+        <v>1488.6917632759178</v>
       </c>
       <c r="C10">
         <v>1</v>

--- a/Data/g18.1b.xlsx
+++ b/Data/g18.1b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Média (2002-2024)</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Posição</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
         </is>
       </c>
     </row>
@@ -462,6 +467,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +485,11 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +503,11 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +521,11 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +539,11 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +557,11 @@
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,6 +575,11 @@
       <c r="C8" t="n">
         <v>11</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -551,6 +591,11 @@
         <v>608.3405730440038</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -562,6 +607,11 @@
         <v>557.3499505767228</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2002-2024</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
